--- a/SCE_mean_lt.xlsx
+++ b/SCE_mean_lt.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -148,7 +148,7 @@
         <v>41487</v>
       </c>
       <c r="B9" s="2">
-        <v>6.0108755668629801</v>
+        <v>6.0108755668629792</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -247,7 +247,7 @@
         <v>41760</v>
       </c>
       <c r="B18" s="2">
-        <v>5.7771625130972017</v>
+        <v>5.7771625130972018</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -258,7 +258,7 @@
         <v>41791</v>
       </c>
       <c r="B19" s="2">
-        <v>5.4481574731314621</v>
+        <v>5.4481574731314622</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -511,7 +511,7 @@
         <v>42491</v>
       </c>
       <c r="B42" s="2">
-        <v>5.4268833608334361</v>
+        <v>5.4268833608334362</v>
       </c>
       <c r="C42" s="2">
         <v>3</v>
@@ -679,7 +679,7 @@
         <v>4.9816022510060503</v>
       </c>
       <c r="C57" s="2">
-        <v>3.4000000953674316</v>
+        <v>3.4000000953674317</v>
       </c>
     </row>
     <row r="58">
@@ -907,7 +907,7 @@
         <v>43586</v>
       </c>
       <c r="B78" s="2">
-        <v>4.3568188806306489</v>
+        <v>4.3568188806306498</v>
       </c>
       <c r="C78" s="2">
         <v>3</v>
@@ -1193,7 +1193,7 @@
         <v>44378</v>
       </c>
       <c r="B104" s="2">
-        <v>5.1739649216188432</v>
+        <v>5.1739649216188433</v>
       </c>
       <c r="C104" s="2">
         <v>4</v>
@@ -1380,7 +1380,7 @@
         <v>44896</v>
       </c>
       <c r="B121" s="2">
-        <v>3.4167832824663282</v>
+        <v>3.4167832824663269</v>
       </c>
       <c r="C121" s="2">
         <v>4</v>
@@ -1478,8 +1478,12 @@
       <c r="A130" s="1">
         <v>45170</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="B130" s="2">
+        <v>4.0125857467627917</v>
+      </c>
+      <c r="C130" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
@@ -1523,6 +1527,41 @@
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_mean_lt.xlsx
+++ b/SCE_mean_lt.xlsx
@@ -148,7 +148,7 @@
         <v>41487</v>
       </c>
       <c r="B9" s="2">
-        <v>6.0108755668629792</v>
+        <v>6.0108755668629801</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -907,7 +907,7 @@
         <v>43586</v>
       </c>
       <c r="B78" s="2">
-        <v>4.3568188806306498</v>
+        <v>4.3568188806306489</v>
       </c>
       <c r="C78" s="2">
         <v>3</v>
@@ -1369,7 +1369,7 @@
         <v>44866</v>
       </c>
       <c r="B120" s="2">
-        <v>1.7585324826803159</v>
+        <v>1.7585324826803148</v>
       </c>
       <c r="C120" s="2">
         <v>5</v>
@@ -1380,7 +1380,7 @@
         <v>44896</v>
       </c>
       <c r="B121" s="2">
-        <v>3.4167832824663269</v>
+        <v>3.4167832824663282</v>
       </c>
       <c r="C121" s="2">
         <v>4</v>

--- a/SCE_mean_lt.xlsx
+++ b/SCE_mean_lt.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +434,7 @@
         <v>42278</v>
       </c>
       <c r="B35" s="2">
-        <v>4.5468317896932229</v>
+        <v>4.5468317896932238</v>
       </c>
       <c r="C35" s="2">
         <v>3.5</v>
@@ -1369,7 +1369,7 @@
         <v>44866</v>
       </c>
       <c r="B120" s="2">
-        <v>1.7585324826803148</v>
+        <v>1.7585324826803159</v>
       </c>
       <c r="C120" s="2">
         <v>5</v>
@@ -1380,7 +1380,7 @@
         <v>44896</v>
       </c>
       <c r="B121" s="2">
-        <v>3.4167832824663282</v>
+        <v>3.4167832824663269</v>
       </c>
       <c r="C121" s="2">
         <v>4</v>
@@ -1489,57 +1489,89 @@
       <c r="A131" s="1">
         <v>45200</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="B131" s="2">
+        <v>4.9531529009810278</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
         <v>45231</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="B132" s="2">
+        <v>3.0489989112225038</v>
+      </c>
+      <c r="C132" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
         <v>45261</v>
       </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="B133" s="2">
+        <v>2.7577358723358074</v>
+      </c>
+      <c r="C133" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
         <v>45292</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="B134" s="2">
+        <v>3.411146524749809</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
         <v>45323</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="B135" s="2">
+        <v>3.2004613492993212</v>
+      </c>
+      <c r="C135" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
         <v>45352</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="B136" s="2">
+        <v>4.2699463713570358</v>
+      </c>
+      <c r="C136" s="2">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
         <v>45383</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="B137" s="2">
+        <v>4.3415269084839139</v>
+      </c>
+      <c r="C137" s="2">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
         <v>45413</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="B138" s="2">
+        <v>2.1644386352046396</v>
+      </c>
+      <c r="C138" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
@@ -1562,6 +1594,48 @@
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
     </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_mean_lt.xlsx
+++ b/SCE_mean_lt.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -247,7 +247,7 @@
         <v>41760</v>
       </c>
       <c r="B18" s="2">
-        <v>5.7771625130972018</v>
+        <v>5.7771625130972017</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -258,7 +258,7 @@
         <v>41791</v>
       </c>
       <c r="B19" s="2">
-        <v>5.4481574731314622</v>
+        <v>5.4481574731314621</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -390,7 +390,7 @@
         <v>42156</v>
       </c>
       <c r="B31" s="2">
-        <v>4.773045002391668</v>
+        <v>4.7730450023916937</v>
       </c>
       <c r="C31" s="2">
         <v>4</v>
@@ -434,7 +434,7 @@
         <v>42278</v>
       </c>
       <c r="B35" s="2">
-        <v>4.5468317896932238</v>
+        <v>4.5468317896932229</v>
       </c>
       <c r="C35" s="2">
         <v>3.5</v>
@@ -511,7 +511,7 @@
         <v>42491</v>
       </c>
       <c r="B42" s="2">
-        <v>5.4268833608334362</v>
+        <v>5.4268833608334361</v>
       </c>
       <c r="C42" s="2">
         <v>3</v>
@@ -679,7 +679,7 @@
         <v>4.9816022510060503</v>
       </c>
       <c r="C57" s="2">
-        <v>3.4000000953674317</v>
+        <v>3.4000000953674316</v>
       </c>
     </row>
     <row r="58">
@@ -1193,7 +1193,7 @@
         <v>44378</v>
       </c>
       <c r="B104" s="2">
-        <v>5.1739649216188433</v>
+        <v>5.1739649216188432</v>
       </c>
       <c r="C104" s="2">
         <v>4</v>
@@ -1577,15 +1577,23 @@
       <c r="A139" s="1">
         <v>45444</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="B139" s="2">
+        <v>3.789953908397762</v>
+      </c>
+      <c r="C139" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
         <v>45474</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="B140" s="2">
+        <v>4.5871743473618389</v>
+      </c>
+      <c r="C140" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
@@ -1636,6 +1644,20 @@
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
     </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>